--- a/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group1_MRI_data_layer2.xlsx
+++ b/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group1_MRI_data_layer2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_E258DDDE8F79A8B36A3704F0FB5CC233402F749F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B156B762-35C7-4E87-9CA7-C2225F185DDF}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_E258DDDE8F79A8B36A3704F0FB5CC233402F749F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6F1CB77-F1F9-4F87-A1CF-CF9CD1D46870}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -235,7 +235,37 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>notes</t>
+    <t>notes1</t>
+  </si>
+  <si>
+    <t>notes2</t>
+  </si>
+  <si>
+    <t>notes3</t>
+  </si>
+  <si>
+    <t>notes4</t>
+  </si>
+  <si>
+    <t>notes5</t>
+  </si>
+  <si>
+    <t>notes6</t>
+  </si>
+  <si>
+    <t>notes7</t>
+  </si>
+  <si>
+    <t>notes8</t>
+  </si>
+  <si>
+    <t>notes9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>notes10</t>
   </si>
 </sst>
 </file>
@@ -646,7 +676,7 @@
   <dimension ref="A1:BS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -868,10 +898,10 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>71</v>
@@ -1083,13 +1113,13 @@
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>0.95970224509463009</v>
@@ -1298,13 +1328,13 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>0.99321191798839015</v>
@@ -1513,13 +1543,13 @@
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>0.45048070744924468</v>
@@ -1728,13 +1758,13 @@
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>0.44603553626779119</v>
@@ -1943,13 +1973,13 @@
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>0.36193514108058522</v>
@@ -2158,13 +2188,13 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>0.53273531960396781</v>
@@ -2373,13 +2403,13 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <v>0.12904595788694509</v>
@@ -2588,13 +2618,13 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <v>0.24877687315556091</v>
@@ -2802,14 +2832,14 @@
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9</v>
+      <c r="A11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>0.47804850645899821</v>

--- a/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group1_MRI_data_layer2.xlsx
+++ b/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group1_MRI_data_layer2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_E258DDDE8F79A8B36A3704F0FB5CC233402F749F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A061F24E-2E8A-43CF-A332-430723B56D56}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_E258DDDE8F79A8B36A3704F0FB5CC233402F749F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E12CF138-BE20-4BA2-9FA1-1F4C2652AC44}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>brain region 5</t>
+  </si>
+  <si>
+    <t>GroupName1</t>
+  </si>
+  <si>
+    <t>TestGroup1</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -143,20 +149,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,15 +549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.83984375" customWidth="1"/>
+    <col min="1" max="1" width="12.68359375" customWidth="1"/>
     <col min="4" max="4" width="15.41796875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="18.41796875" customWidth="1"/>
@@ -513,158 +566,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D5" s="6">
         <v>0.26282543933500602</v>
       </c>
-      <c r="E2">
+      <c r="E5" s="6">
         <v>0.80304369526822594</v>
       </c>
-      <c r="F2">
+      <c r="F5" s="6">
         <v>1.282203258482539E-2</v>
       </c>
-      <c r="G2">
+      <c r="G5" s="6">
         <v>0.58922333474846156</v>
       </c>
-      <c r="H2">
+      <c r="H5" s="6">
         <v>0.95050969184202305</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D6" s="6">
         <v>0.95970224509463009</v>
       </c>
-      <c r="E3">
+      <c r="E6" s="6">
         <v>8.6851243468437644E-2</v>
       </c>
-      <c r="F3">
+      <c r="F6" s="6">
         <v>0.45456166190795472</v>
       </c>
-      <c r="G3">
+      <c r="G6" s="6">
         <v>6.091757205085524E-2</v>
       </c>
-      <c r="H3">
+      <c r="H6" s="6">
         <v>0.42615678988601441</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D7" s="6">
         <v>0.99321191798839015</v>
       </c>
-      <c r="E4">
+      <c r="E7" s="6">
         <v>0.67210423790651719</v>
       </c>
-      <c r="F4">
+      <c r="F7" s="6">
         <v>1.3508968028588701E-2</v>
       </c>
-      <c r="G4">
+      <c r="G7" s="6">
         <v>0.20041845660319471</v>
       </c>
-      <c r="H4">
+      <c r="H7" s="6">
         <v>0.84585723798143175</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D8" s="6">
         <v>0.45048070744924468</v>
       </c>
-      <c r="E5">
+      <c r="E8" s="6">
         <v>0.42675095861798013</v>
       </c>
-      <c r="F5">
+      <c r="F8" s="6">
         <v>0.88041136284309596</v>
       </c>
-      <c r="G5">
+      <c r="G8" s="6">
         <v>0.71467945698321755</v>
       </c>
-      <c r="H5">
+      <c r="H8" s="6">
         <v>0.30970225069775531</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D9" s="6">
         <v>0.44603553626779119</v>
       </c>
-      <c r="E6">
+      <c r="E9" s="6">
         <v>0.50127562439382645</v>
       </c>
-      <c r="F6">
+      <c r="F9" s="6">
         <v>4.4488886792809823E-2</v>
       </c>
-      <c r="G6">
+      <c r="G9" s="6">
         <v>0.53547398543432456</v>
       </c>
-      <c r="H6">
+      <c r="H9" s="6">
         <v>0.18011543556970261</v>
       </c>
     </row>
